--- a/input/html-links-ICTY-Jan.xlsx
+++ b/input/html-links-ICTY-Jan.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miriam/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\AutomatedTraumaDetectionInGCT\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181BD8EB-769C-0F4C-8F92-0FEF72D76EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{0BEA6C6D-27E8-42D0-B9C4-246B87BCB1AB}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -84,8 +83,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +112,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,17 +138,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -453,266 +462,144 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6F2C9EA-6F28-44B8-9865-284D8C87025C}">
-  <dimension ref="A1:G50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="103" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E1" s="1"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2">
+        <v>37400</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E2" s="1"/>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2">
+        <v>37371</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E3" s="1"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>37382</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>37389</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E6" s="1"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>37404</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="9" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3">
-        <v>37400</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3">
-        <v>37371</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3">
-        <v>37382</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3">
-        <v>37389</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3">
-        <v>37404</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="4">
+      <c r="E6" s="3">
         <v>37411</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E38" s="1"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E50" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>